--- a/tests/DDScoreTestExpected.xlsx
+++ b/tests/DDScoreTestExpected.xlsx
@@ -6,7 +6,7 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$2:$M$16</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -127,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -143,7 +143,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,12 +172,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -190,9 +186,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -420,382 +413,367 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>14</v>
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="5">
+      <c r="F9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="4">
         <v>1.0</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O9" s="4">
         <v>3.0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N12" s="4">
         <v>0.0</v>
       </c>
-      <c r="O4" s="6">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="O12" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="5">
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O14" s="4">
         <v>1.0</v>
       </c>
-      <c r="O5" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="5" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="O6" s="5">
+      <c r="N15" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O15" s="4">
         <v>3.0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O7" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="O8" s="5">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O10" s="5">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O11" s="5">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="O12" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O13" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="O14" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O15" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="O16" s="5">
-        <v>3.0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="$A$2:$M$16"/>
+  <autoFilter ref="$A$1:$M$15"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/DDScoreTestExpected.xlsx
+++ b/tests/DDScoreTestExpected.xlsx
@@ -6,7 +6,7 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$B$1:$N$15</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -127,17 +127,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
@@ -172,20 +181,26 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -404,376 +419,419 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="18.43"/>
-    <col customWidth="1" min="3" max="3" width="28.57"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="24.71"/>
-    <col customWidth="1" min="14" max="14" width="18.86"/>
-    <col customWidth="1" min="15" max="15" width="17.86"/>
+    <col customWidth="1" min="1" max="3" width="18.43"/>
+    <col customWidth="1" min="4" max="4" width="28.57"/>
+    <col customWidth="1" min="5" max="5" width="3.14"/>
+    <col customWidth="1" min="6" max="6" width="24.71"/>
+    <col customWidth="1" min="15" max="15" width="18.86"/>
+    <col customWidth="1" min="16" max="16" width="17.86"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="6">
         <v>1.0</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="4">
+      <c r="O3" s="6">
         <v>0.0</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="6">
         <v>1.0</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O5" s="4">
+      <c r="O5" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="P5" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="6">
         <v>1.0</v>
       </c>
-      <c r="O6" s="4">
+      <c r="P6" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O7" s="4">
+      <c r="O7" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="P7" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O8" s="4">
+      <c r="O8" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="P8" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="6">
         <v>1.0</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="4">
+      <c r="O10" s="6">
         <v>1.0</v>
       </c>
-      <c r="O10" s="4">
+      <c r="P10" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O11" s="4">
+      <c r="O11" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="P11" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="6">
         <v>0.0</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O13" s="4">
+      <c r="O13" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="P13" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="6">
         <v>0.0</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O15" s="4">
+      <c r="O15" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="P15" s="6">
         <v>3.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$M$15"/>
+  <autoFilter ref="$B$1:$N$15"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>